--- a/slr.xlsx
+++ b/slr.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parmi\Desktop\dildo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Saeed/Projects/Compiler/Compiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23040" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -365,21 +371,6 @@
     <t>]</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -404,30 +395,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -479,13 +446,52 @@
     <t>Z</t>
   </si>
   <si>
-    <t>Å</t>
-  </si>
-  <si>
     <t>Ã</t>
   </si>
   <si>
     <t>Â</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>declaration_list</t>
+  </si>
+  <si>
+    <t>EOF</t>
+  </si>
+  <si>
+    <t>declaration</t>
+  </si>
+  <si>
+    <t>var_declaration</t>
+  </si>
+  <si>
+    <t>fun_declaration</t>
+  </si>
+  <si>
+    <t>type_specifier</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>compound_stmt</t>
+  </si>
+  <si>
+    <t>param_list</t>
   </si>
 </sst>
 </file>
@@ -808,13 +814,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR11" sqref="AR11"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>102</v>
       </c>
@@ -849,130 +855,130 @@
         <v>112</v>
       </c>
       <c r="M1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" t="s">
         <v>113</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>114</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>115</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>119</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>120</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" t="s">
         <v>121</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AI1" t="s">
         <v>122</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AJ1" t="s">
         <v>123</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AK1" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AL1" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AM1" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AN1" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AO1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AP1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AQ1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AR1" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AS1" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AT1" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AU1" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AV1" t="s">
         <v>135</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AW1" t="s">
         <v>136</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AX1" t="s">
         <v>137</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AY1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>138</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BA1" t="s">
         <v>139</v>
       </c>
-      <c r="AN1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1104,7 +1110,7 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1238,7 +1244,7 @@
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1301,7 +1307,7 @@
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1360,7 +1366,7 @@
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1419,7 +1425,7 @@
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1478,7 +1484,7 @@
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1541,7 +1547,7 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1600,7 +1606,7 @@
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1663,7 +1669,7 @@
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1726,7 +1732,7 @@
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1795,7 +1801,7 @@
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1876,7 +1882,7 @@
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1935,7 +1941,7 @@
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1994,7 +2000,7 @@
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2053,7 +2059,7 @@
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2114,7 +2120,7 @@
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2175,7 +2181,7 @@
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2236,7 +2242,7 @@
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2295,7 +2301,7 @@
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2358,7 +2364,7 @@
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2419,7 +2425,7 @@
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2484,7 +2490,7 @@
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2543,7 +2549,7 @@
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2602,7 +2608,7 @@
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2665,7 +2671,7 @@
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2746,7 +2752,7 @@
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2807,7 +2813,7 @@
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2888,7 +2894,7 @@
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2949,7 +2955,7 @@
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3034,7 +3040,7 @@
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3113,7 +3119,7 @@
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3172,7 +3178,7 @@
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3273,7 +3279,7 @@
       </c>
       <c r="BA36" s="1"/>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3334,7 +3340,7 @@
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3411,7 +3417,7 @@
       </c>
       <c r="BA38" s="1"/>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3488,7 +3494,7 @@
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3565,7 +3571,7 @@
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3640,7 +3646,7 @@
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3717,7 +3723,7 @@
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3794,7 +3800,7 @@
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3871,7 +3877,7 @@
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3948,7 +3954,7 @@
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4013,7 +4019,7 @@
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4090,7 +4096,7 @@
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4165,7 +4171,7 @@
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4240,7 +4246,7 @@
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4317,7 +4323,7 @@
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4392,7 +4398,7 @@
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4473,7 +4479,7 @@
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4548,7 +4554,7 @@
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4607,7 +4613,7 @@
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4666,7 +4672,7 @@
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4745,7 +4751,7 @@
       </c>
       <c r="BA56" s="1"/>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4828,7 +4834,7 @@
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4887,7 +4893,7 @@
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4946,7 +4952,7 @@
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5009,7 +5015,7 @@
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
     </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5072,7 +5078,7 @@
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
     </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5135,7 +5141,7 @@
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
     </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5208,7 +5214,7 @@
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
     </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5279,7 +5285,7 @@
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
     </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5342,7 +5348,7 @@
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5411,7 +5417,7 @@
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
     </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5488,7 +5494,7 @@
       </c>
       <c r="BA67" s="1"/>
     </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5571,7 +5577,7 @@
       </c>
       <c r="BA68" s="1"/>
     </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5648,7 +5654,7 @@
       </c>
       <c r="BA69" s="1"/>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5725,7 +5731,7 @@
       </c>
       <c r="BA70" s="1"/>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5802,7 +5808,7 @@
       </c>
       <c r="BA71" s="1"/>
     </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5879,7 +5885,7 @@
       <c r="AZ72" s="1"/>
       <c r="BA72" s="1"/>
     </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5938,7 +5944,7 @@
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1"/>
     </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6015,7 +6021,7 @@
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
     </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6090,7 +6096,7 @@
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
     </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6161,7 +6167,7 @@
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
     </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6236,7 +6242,7 @@
       <c r="AZ77" s="1"/>
       <c r="BA77" s="1"/>
     </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6311,7 +6317,7 @@
       <c r="AZ78" s="1"/>
       <c r="BA78" s="1"/>
     </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6386,7 +6392,7 @@
       <c r="AZ79" s="1"/>
       <c r="BA79" s="1"/>
     </row>
-    <row r="80" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6451,7 +6457,7 @@
       <c r="AZ80" s="1"/>
       <c r="BA80" s="1"/>
     </row>
-    <row r="81" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6510,7 +6516,7 @@
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
     </row>
-    <row r="82" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6571,7 +6577,7 @@
       <c r="AZ82" s="1"/>
       <c r="BA82" s="1"/>
     </row>
-    <row r="83" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6632,7 +6638,7 @@
       <c r="AZ83" s="1"/>
       <c r="BA83" s="1"/>
     </row>
-    <row r="84" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6691,7 +6697,7 @@
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1"/>
     </row>
-    <row r="85" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6750,7 +6756,7 @@
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1"/>
     </row>
-    <row r="86" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6809,7 +6815,7 @@
       <c r="AZ86" s="1"/>
       <c r="BA86" s="1"/>
     </row>
-    <row r="87" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6886,7 +6892,7 @@
       <c r="AZ87" s="1"/>
       <c r="BA87" s="1"/>
     </row>
-    <row r="88" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6961,7 +6967,7 @@
       <c r="AZ88" s="1"/>
       <c r="BA88" s="1"/>
     </row>
-    <row r="89" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7038,7 +7044,7 @@
       </c>
       <c r="BA89" s="1"/>
     </row>
-    <row r="90" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7115,7 +7121,7 @@
       <c r="AZ90" s="1"/>
       <c r="BA90" s="1"/>
     </row>
-    <row r="91" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7214,7 +7220,7 @@
       </c>
       <c r="BA91" s="1"/>
     </row>
-    <row r="92" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7313,7 +7319,7 @@
       </c>
       <c r="BA92" s="1"/>
     </row>
-    <row r="93" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7374,7 +7380,7 @@
       <c r="AZ93" s="1"/>
       <c r="BA93" s="1"/>
     </row>
-    <row r="94" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7433,7 +7439,7 @@
       <c r="AZ94" s="1"/>
       <c r="BA94" s="1"/>
     </row>
-    <row r="95" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7510,7 +7516,7 @@
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1"/>
     </row>
-    <row r="96" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7609,7 +7615,7 @@
       </c>
       <c r="BA96" s="1"/>
     </row>
-    <row r="97" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
